--- a/_CONCAT_Doval.xlsx
+++ b/_CONCAT_Doval.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A5114E-1BB7-45EA-9222-D2EE4D855AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B626FAE6-654B-4F0E-AF2D-63F55D0F7E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7620" yWindow="1335" windowWidth="29265" windowHeight="19365" xr2:uid="{9D717462-EC9A-4D8E-92EA-87391A4D97B1}"/>
+    <workbookView xWindow="120" yWindow="405" windowWidth="26775" windowHeight="17400" xr2:uid="{9D717462-EC9A-4D8E-92EA-87391A4D97B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,79 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+  <si>
+    <t>Check Item</t>
+  </si>
+  <si>
+    <t>Hold Point 2</t>
+  </si>
+  <si>
+    <t>Visual</t>
+  </si>
+  <si>
+    <t>Hold Point 3</t>
+  </si>
+  <si>
+    <t>Any trees, shrubs and overhanging branches to be left undisturbed shall be clearly marked prior to clearing operations reaching the areas concerned.</t>
+  </si>
+  <si>
+    <t>MRTS04_x000D_
+Cl. 7.2.2</t>
+  </si>
+  <si>
+    <t>Any trees required by the Administrator for use as marketable timber shall be as nominated in Clause 1.3 of Annexure MRTS04.1. Such trees shall be clearly marked by the Contractor prior to clearing operations reaching the areas concerned</t>
+  </si>
+  <si>
+    <t>MRTS04_x000D_
+Cl. 7.2.3</t>
+  </si>
+  <si>
+    <t>As soon as practicable and prior to initial earthworks operations (clearing and grubbing) for any stage or section of the Works, erosion and sediment controls associated with drainage paths flowing through the Works area shall be installed.</t>
+  </si>
+  <si>
+    <t>MRTS52_x000D_
+Cl. 7.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hollow timber which is identified as being suitable for fauna habitat logs relocated to areas clear of construction activities </t>
+  </si>
+  <si>
+    <t>MRTS04_x000D_
+Cl. 7.2.5</t>
+  </si>
+  <si>
+    <t>Surplus topsoil material and material considered not suitable for use as planting media in accordance with Cl. 8.3 shall be assessed for suitability for use as fill or deemed as unsuitable and disposed in accordance with Cl. 11</t>
+  </si>
+  <si>
+    <t>MRTS04_x000D_
+Cl. 8.4.2</t>
+  </si>
+  <si>
+    <t>MRTS04 _x000D_
+Cl. 7.2.8_x000D_
+MRTS04.1 Cl 1.2_x000D_
+Cl 1.4</t>
+  </si>
+  <si>
+    <t>The additional width for clearing (no grubbing) is 3.0m as per Annexure MRTS04.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annexure_x000D_
+MRTS04.1_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Material not to be removed from within drip lines of existing plants to be retained except where this would result in unsuitable material being left beneath embankments. Root systems of existing plants to be retained are preserved where practical. </t>
+  </si>
+  <si>
+    <t>MRTS04_x000D_
+Cl. 8.4.3</t>
+  </si>
+  <si>
+    <t>The scope of clearing and grubbing shall include the items as per Annexure MRTS04.1 Cl. 1.2 CHAR(AMP) Cl. 1.4</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -104,19 +176,115 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -426,7 +594,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9569D8B-2D3C-4734-8A88-E4228D8D8D71}">
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:AF51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -434,28 +602,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" customWidth="1"/>
-    <col min="6" max="6" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" customWidth="1"/>
-    <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="8.28515625" customWidth="1"/>
-    <col min="18" max="18" width="4.5703125" customWidth="1"/>
-    <col min="19" max="19" width="17.140625" customWidth="1"/>
-    <col min="20" max="20" width="7.5703125" customWidth="1"/>
-    <col min="21" max="21" width="11" customWidth="1"/>
-    <col min="22" max="22" width="98.28515625" customWidth="1"/>
-    <col min="23" max="23" width="146.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" customWidth="1"/>
+    <col min="12" max="13" width="6.5703125" customWidth="1"/>
+    <col min="14" max="14" width="6.28515625" customWidth="1"/>
+    <col min="15" max="15" width="7.42578125" customWidth="1"/>
+    <col min="16" max="16" width="7.5703125" customWidth="1"/>
+    <col min="17" max="17" width="2.5703125" customWidth="1"/>
+    <col min="18" max="18" width="3.5703125" customWidth="1"/>
+    <col min="19" max="19" width="2.42578125" customWidth="1"/>
+    <col min="20" max="20" width="4.7109375" customWidth="1"/>
+    <col min="21" max="21" width="4.28515625" customWidth="1"/>
+    <col min="22" max="22" width="4" customWidth="1"/>
+    <col min="23" max="23" width="3.7109375" customWidth="1"/>
+    <col min="24" max="24" width="4.42578125" customWidth="1"/>
+    <col min="25" max="25" width="3.85546875" customWidth="1"/>
+    <col min="26" max="26" width="1.7109375" customWidth="1"/>
+    <col min="27" max="27" width="2.140625" customWidth="1"/>
+    <col min="29" max="29" width="8.5703125" customWidth="1"/>
+    <col min="30" max="30" width="8.42578125" customWidth="1"/>
+    <col min="31" max="31" width="10.140625" customWidth="1"/>
+    <col min="32" max="32" width="61.7109375" customWidth="1"/>
+    <col min="33" max="33" width="8.28515625" customWidth="1"/>
+    <col min="34" max="34" width="4.5703125" customWidth="1"/>
+    <col min="35" max="35" width="17.140625" customWidth="1"/>
+    <col min="36" max="36" width="7.5703125" customWidth="1"/>
+    <col min="37" max="37" width="11" customWidth="1"/>
+    <col min="38" max="38" width="98.28515625" customWidth="1"/>
+    <col min="39" max="39" width="146.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -466,64 +652,533 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-    </row>
-    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+    </row>
+    <row r="2" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="L2" t="str">
-        <f>A2&amp;" "&amp;B2</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M2" t="str">
-        <f>"Acceptance Criteria and Frequency (Project Specific): "&amp;C2</f>
-        <v xml:space="preserve">Acceptance Criteria and Frequency (Project Specific): </v>
-      </c>
-      <c r="N2" t="str">
-        <f>"Check Item / Reference: "&amp;D2</f>
-        <v xml:space="preserve">Check Item / Reference: </v>
-      </c>
-      <c r="V2" t="e" cm="1">
-        <f t="array" ref="V2:V4">_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;_xlfn.TEXTJOIN("&lt;/s&gt;&lt;s&gt;",,L2:T40)&amp;"&lt;/s&gt;&lt;/t&gt;","//s")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="str">
+        <f>A2</f>
+        <v>Any trees, shrubs and overhanging branches to be left undisturbed shall be clearly marked prior to clearing operations reaching the areas concerned.</v>
+      </c>
+      <c r="AC2" t="str">
+        <f>"Acceptance Criteria and Frequency (Project Specific) - "&amp;O2</f>
+        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+      </c>
+      <c r="AD2" t="str">
+        <f>"Check Item - "&amp;W2</f>
+        <v>Check Item - Hold Point 2</v>
+      </c>
+      <c r="AE2" t="str">
+        <f>"Reference - "&amp;W3</f>
+        <v>Reference - MRTS04_x000D_
+Cl. 7.2.2</v>
+      </c>
+      <c r="AF2" t="str" cm="1">
+        <f t="array" ref="AF2:AF33">_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;_xlfn.TEXTJOIN("&lt;/s&gt;&lt;s&gt;",,AB2:AE51)&amp;"&lt;/s&gt;&lt;/t&gt;","//s")</f>
+        <v>Any trees, shrubs and overhanging branches to be left undisturbed shall be clearly marked prior to clearing operations reaching the areas concerned.</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="V3" t="str">
-        <v>Acceptance Criteria and Frequency (Project Specific):</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF3" t="str">
+        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="V4" t="str">
-        <v>Check Item / Reference:</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB4" t="str">
+        <f>A4</f>
+        <v>Any trees required by the Administrator for use as marketable timber shall be as nominated in Clause 1.3 of Annexure MRTS04.1. Such trees shall be clearly marked by the Contractor prior to clearing operations reaching the areas concerned</v>
+      </c>
+      <c r="AC4" t="str">
+        <f>"Acceptance Criteria and Frequency (Project Specific) - "&amp;O4</f>
+        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+      </c>
+      <c r="AD4" t="str">
+        <f>"Check Item - "&amp;W4</f>
+        <v>Check Item - Hold Point 3</v>
+      </c>
+      <c r="AE4" t="str">
+        <f>"Reference - "&amp;W5</f>
+        <v>Reference - MRTS04_x000D_
+Cl. 7.2.3</v>
+      </c>
+      <c r="AF4" t="str">
+        <v>Check Item - Hold Point 2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF5" t="str">
+        <v>Reference - MRTS04
+Cl. 7.2.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F6" s="1"/>
-    </row>
-    <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O6" t="s">
+        <v>2</v>
+      </c>
+      <c r="W6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB6" t="str">
+        <f>A6</f>
+        <v>As soon as practicable and prior to initial earthworks operations (clearing and grubbing) for any stage or section of the Works, erosion and sediment controls associated with drainage paths flowing through the Works area shall be installed.</v>
+      </c>
+      <c r="AC6" t="str">
+        <f>"Acceptance Criteria and Frequency (Project Specific) - "&amp;O6</f>
+        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+      </c>
+      <c r="AD6" t="str">
+        <f>"Check Item - "&amp;W6</f>
+        <v>Check Item - Hold Point 2</v>
+      </c>
+      <c r="AE6" t="str">
+        <f>"Reference - "&amp;W7</f>
+        <v>Reference - MRTS52_x000D_
+Cl. 7.1</v>
+      </c>
+      <c r="AF6" t="str">
+        <v>Any trees required by the Administrator for use as marketable timber shall be as nominated in Clause 1.3 of Annexure MRTS04.1. Such trees shall be clearly marked by the Contractor prior to clearing operations reaching the areas concerned</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF7" t="str">
+        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" t="s">
+        <v>2</v>
+      </c>
+      <c r="W8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="str">
+        <f>A8</f>
+        <v xml:space="preserve">Hollow timber which is identified as being suitable for fauna habitat logs relocated to areas clear of construction activities </v>
+      </c>
+      <c r="AC8" t="str">
+        <f>"Acceptance Criteria and Frequency (Project Specific) - "&amp;O8</f>
+        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+      </c>
+      <c r="AD8" t="str">
+        <f>"Check Item - "&amp;W8</f>
+        <v>Check Item - Check Item</v>
+      </c>
+      <c r="AE8" t="str">
+        <f>"Reference - "&amp;W9</f>
+        <v>Reference - MRTS04_x000D_
+Cl. 7.2.5</v>
+      </c>
+      <c r="AF8" t="str">
+        <v>Check Item - Hold Point 3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF9" t="str">
+        <v>Reference - MRTS04
+Cl. 7.2.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" t="s">
+        <v>2</v>
+      </c>
+      <c r="W10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="str">
+        <f>A10</f>
+        <v>Surplus topsoil material and material considered not suitable for use as planting media in accordance with Cl. 8.3 shall be assessed for suitability for use as fill or deemed as unsuitable and disposed in accordance with Cl. 11</v>
+      </c>
+      <c r="AC10" t="str">
+        <f>"Acceptance Criteria and Frequency (Project Specific) - "&amp;O10</f>
+        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+      </c>
+      <c r="AD10" t="str">
+        <f>"Check Item - "&amp;W10</f>
+        <v>Check Item - Check Item</v>
+      </c>
+      <c r="AE10" t="str">
+        <f>"Reference - "&amp;W11</f>
+        <v>Reference - MRTS04_x000D_
+Cl. 8.4.2</v>
+      </c>
+      <c r="AF10" t="str">
+        <v>As soon as practicable and prior to initial earthworks operations (clearing and grubbing) for any stage or section of the Works, erosion and sediment controls associated with drainage paths flowing through the Works area shall be installed.</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF11" t="str">
+        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" t="s">
+        <v>2</v>
+      </c>
+      <c r="W12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="str">
+        <f>A12</f>
+        <v>The scope of clearing and grubbing shall include the items as per Annexure MRTS04.1 Cl. 1.2 CHAR(AMP) Cl. 1.4</v>
+      </c>
+      <c r="AC12" t="str">
+        <f>"Acceptance Criteria and Frequency (Project Specific) - "&amp;O12</f>
+        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+      </c>
+      <c r="AD12" t="str">
+        <f>"Check Item - "&amp;W12</f>
+        <v>Check Item - Check Item</v>
+      </c>
+      <c r="AE12" t="str">
+        <f>"Reference - "&amp;W13</f>
+        <v>Reference - MRTS04 _x000D_
+Cl. 7.2.8_x000D_
+MRTS04.1 Cl 1.2_x000D_
+Cl 1.4</v>
+      </c>
+      <c r="AF12" t="str">
+        <v>Check Item - Hold Point 2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V13" s="1"/>
+      <c r="W13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF13" t="str">
+        <v>Reference - MRTS52
+Cl. 7.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" t="s">
+        <v>2</v>
+      </c>
+      <c r="W14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="str">
+        <f>A14</f>
+        <v>The additional width for clearing (no grubbing) is 3.0m as per Annexure MRTS04.1</v>
+      </c>
+      <c r="AC14" t="str">
+        <f>"Acceptance Criteria and Frequency (Project Specific) - "&amp;O14</f>
+        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+      </c>
+      <c r="AD14" t="str">
+        <f>"Check Item - "&amp;W14</f>
+        <v>Check Item - Check Item</v>
+      </c>
+      <c r="AE14" t="str">
+        <f>"Reference - "&amp;W15</f>
+        <v xml:space="preserve">Reference - Annexure_x000D_
+MRTS04.1_x000D_
+</v>
+      </c>
+      <c r="AF14" t="str">
+        <v>Hollow timber which is identified as being suitable for fauna habitat logs relocated to areas clear of construction activities</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF15" t="str">
+        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16" t="s">
+        <v>2</v>
+      </c>
+      <c r="W16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="str">
+        <f>A16</f>
+        <v xml:space="preserve">Material not to be removed from within drip lines of existing plants to be retained except where this would result in unsuitable material being left beneath embankments. Root systems of existing plants to be retained are preserved where practical. </v>
+      </c>
+      <c r="AC16" t="str">
+        <f>"Acceptance Criteria and Frequency (Project Specific) - "&amp;O16</f>
+        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+      </c>
+      <c r="AD16" t="str">
+        <f>"Check Item - "&amp;W16</f>
+        <v>Check Item - Check Item</v>
+      </c>
+      <c r="AE16" t="str">
+        <f>"Reference - "&amp;W17</f>
+        <v>Reference - MRTS04_x000D_
+Cl. 8.4.3</v>
+      </c>
+      <c r="AF16" t="str">
+        <v>Check Item - Check Item</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V17" s="1"/>
+      <c r="W17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF17" t="str">
+        <v>Reference - MRTS04
+Cl. 7.2.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N18" s="1"/>
+      <c r="AF18" t="str">
+        <v>Surplus topsoil material and material considered not suitable for use as planting media in accordance with Cl. 8.3 shall be assessed for suitability for use as fill or deemed as unsuitable and disposed in accordance with Cl. 11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V19" s="1"/>
+      <c r="AF19" t="str">
+        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="AF20" t="str">
+        <v>Check Item - Check Item</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V21" s="1"/>
+      <c r="AF21" t="str">
+        <v>Reference - MRTS04
+Cl. 8.4.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="AF22" t="str">
+        <v>The scope of clearing and grubbing shall include the items as per Annexure MRTS04.1 Cl. 1.2 CHAR(AMP) Cl. 1.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V23" s="1"/>
+      <c r="AF23" t="str">
+        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF24" t="str">
+        <v>Check Item - Check Item</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V25" s="1"/>
+      <c r="AF25" t="str">
+        <v>Reference - MRTS04 
+Cl. 7.2.8
+MRTS04.1 Cl 1.2
+Cl 1.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V26" s="1"/>
+      <c r="AF26" t="str">
+        <v>The additional width for clearing (no grubbing) is 3.0m as per Annexure MRTS04.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V27" s="1"/>
+      <c r="AF27" t="str">
+        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF28" t="str">
+        <v>Check Item - Check Item</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V29" s="1"/>
+      <c r="AF29" t="str">
+        <v>Reference - Annexure
+MRTS04.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="AF30" t="str">
+        <v>Material not to be removed from within drip lines of existing plants to be retained except where this would result in unsuitable material being left beneath embankments. Root systems of existing plants to be retained are preserved where practical.</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V31" s="1"/>
+      <c r="AF31" t="str">
+        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="AF32" t="str">
+        <v>Check Item - Check Item</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V33" s="1"/>
+      <c r="AF33" t="str">
+        <v>Reference - MRTS04
+Cl. 8.4.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V35" s="1"/>
+    </row>
+    <row r="36" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V37" s="1"/>
+    </row>
+    <row r="38" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V39" s="1"/>
+    </row>
+    <row r="40" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V41" s="1"/>
+    </row>
+    <row r="42" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V43" s="1"/>
+    </row>
+    <row r="44" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V45" s="1"/>
+    </row>
+    <row r="46" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V47" s="1"/>
+    </row>
+    <row r="48" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V49" s="1"/>
+    </row>
+    <row r="51" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V51" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_CONCAT_Doval.xlsx
+++ b/_CONCAT_Doval.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B626FAE6-654B-4F0E-AF2D-63F55D0F7E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B9DDA7-4470-4AA2-B02C-178B26BCFD7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="405" windowWidth="26775" windowHeight="17400" xr2:uid="{9D717462-EC9A-4D8E-92EA-87391A4D97B1}"/>
+    <workbookView xWindow="75" yWindow="600" windowWidth="26775" windowHeight="17400" xr2:uid="{9D717462-EC9A-4D8E-92EA-87391A4D97B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="67">
   <si>
     <t>Check Item</t>
   </si>
@@ -72,63 +72,228 @@
     <t>Hold Point 3</t>
   </si>
   <si>
-    <t>Any trees, shrubs and overhanging branches to be left undisturbed shall be clearly marked prior to clearing operations reaching the areas concerned.</t>
-  </si>
-  <si>
-    <t>MRTS04_x000D_
-Cl. 7.2.2</t>
-  </si>
-  <si>
-    <t>Any trees required by the Administrator for use as marketable timber shall be as nominated in Clause 1.3 of Annexure MRTS04.1. Such trees shall be clearly marked by the Contractor prior to clearing operations reaching the areas concerned</t>
-  </si>
-  <si>
-    <t>MRTS04_x000D_
-Cl. 7.2.3</t>
-  </si>
-  <si>
-    <t>As soon as practicable and prior to initial earthworks operations (clearing and grubbing) for any stage or section of the Works, erosion and sediment controls associated with drainage paths flowing through the Works area shall be installed.</t>
-  </si>
-  <si>
-    <t>MRTS52_x000D_
-Cl. 7.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hollow timber which is identified as being suitable for fauna habitat logs relocated to areas clear of construction activities </t>
-  </si>
-  <si>
-    <t>MRTS04_x000D_
-Cl. 7.2.5</t>
-  </si>
-  <si>
-    <t>Surplus topsoil material and material considered not suitable for use as planting media in accordance with Cl. 8.3 shall be assessed for suitability for use as fill or deemed as unsuitable and disposed in accordance with Cl. 11</t>
-  </si>
-  <si>
-    <t>MRTS04_x000D_
-Cl. 8.4.2</t>
-  </si>
-  <si>
-    <t>MRTS04 _x000D_
-Cl. 7.2.8_x000D_
-MRTS04.1 Cl 1.2_x000D_
-Cl 1.4</t>
-  </si>
-  <si>
-    <t>The additional width for clearing (no grubbing) is 3.0m as per Annexure MRTS04.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annexure_x000D_
-MRTS04.1_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Material not to be removed from within drip lines of existing plants to be retained except where this would result in unsuitable material being left beneath embankments. Root systems of existing plants to be retained are preserved where practical. </t>
-  </si>
-  <si>
-    <t>MRTS04_x000D_
-Cl. 8.4.3</t>
-  </si>
-  <si>
-    <t>The scope of clearing and grubbing shall include the items as per Annexure MRTS04.1 Cl. 1.2 CHAR(AMP) Cl. 1.4</t>
+    <t>Hold Point 5</t>
+  </si>
+  <si>
+    <t>Hold Point 8</t>
+  </si>
+  <si>
+    <t>Hold Point 1</t>
+  </si>
+  <si>
+    <t>Witness Point 6</t>
+  </si>
+  <si>
+    <t>Milestone</t>
+  </si>
+  <si>
+    <t>Witness Point 2</t>
+  </si>
+  <si>
+    <t>Hold Point 6</t>
+  </si>
+  <si>
+    <t>Hold Point 7</t>
+  </si>
+  <si>
+    <t>Soil Management Plan prepared in accordance with Form A of Appendix MRTS16. Construction and regular Updates submitted to the Administrator for approval</t>
+  </si>
+  <si>
+    <t>Written Acceptance</t>
+  </si>
+  <si>
+    <t>MRTS16_x000D_
+Cl 5.2.1</t>
+  </si>
+  <si>
+    <t>Non-Potable Water Plan and permits submitted to the Administrator</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>MRTS16_x000D_
+Cl 5.2.2</t>
+  </si>
+  <si>
+    <t>Seed Supply Proposal submitted to the Administrator within 30 days of Possession of Site</t>
+  </si>
+  <si>
+    <t>MRTS16_x000D_
+Cl 5.3.1</t>
+  </si>
+  <si>
+    <t>Plant Supply Proposal submitted to the Administrator within 30 days of Possession of Site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRTS16_x000D_
+Cl 5.3.3 </t>
+  </si>
+  <si>
+    <t>Plant Harvesting Proposal submitted to the Administrator prior to harvesting plants</t>
+  </si>
+  <si>
+    <t>MRTS16_x000D_
+Cl 5.3.4</t>
+  </si>
+  <si>
+    <t>Materials imported to Site shall be free of prohibited or restricted biosecurity matter</t>
+  </si>
+  <si>
+    <t>MRTS16_x000D_
+Cl 7</t>
+  </si>
+  <si>
+    <t>Materials are stored to ensure no deterioration or contamination occurs, including the potential for environmental harm</t>
+  </si>
+  <si>
+    <t>Materials; including pesticides, soil amelioration agents, soil, seeding, turf, mulch, matting, plants water, plant bed edging and irrigation systems, comply with requirements and specifications set out in MRTS16 Clause 7 where applicable</t>
+  </si>
+  <si>
+    <t>Containerised plants and ex ground stock in accordance with MRTS16 Cl. 7.6.2</t>
+  </si>
+  <si>
+    <t>MRTS16_x000D_
+Cl 7.6.2</t>
+  </si>
+  <si>
+    <t>The extent and types of vegetation treatments are installed as specified in the contract and/or shown on the drawings</t>
+  </si>
+  <si>
+    <t>MRTS16_x000D_
+Cl 8</t>
+  </si>
+  <si>
+    <t>Site is weed free prior to ground preparation operations</t>
+  </si>
+  <si>
+    <t>MRTS16_x000D_
+Cl 8.3</t>
+  </si>
+  <si>
+    <t>Administrator notified at least 3 days before each of the following:_x000D_
+application and incorporation of amelioration agents_x000D_
+ripping_x000D_
+cultivation _x000D_
+roughening</t>
+  </si>
+  <si>
+    <t>Witness Point 3, 4, 5</t>
+  </si>
+  <si>
+    <t>MRTS16_x000D_
+Cl 8.1.1_x000D_
+Cl 8.4.1.1_x000D_
+Cl 8.4.1.2_x000D_
+Cl 8.4.1.3_x000D_
+Cl 8.4.1.4</t>
+  </si>
+  <si>
+    <t>Amelioration agents, where specified in the Soil Management Plan – Construction, shall be spread_x000D_
+over the subsoil surface at the specified rates prior to subsoil operations</t>
+  </si>
+  <si>
+    <t>Cl 8.4.1.1</t>
+  </si>
+  <si>
+    <t>Manufactured site topsoil shall be in accordance with Form D of MRTS 16 Appendix prior to being used.</t>
+  </si>
+  <si>
+    <t>MRTS16_x000D_
+Cl 8.2.1</t>
+  </si>
+  <si>
+    <t>The Contractor shall give at least three days notice before installation of topsoil. Topsoil installed evenly over the surface, within 3 days of subsoil preparation and Topsoil shall be spread to the depths described in the relevant vegetation works operation, and allow for settlement after installation.</t>
+  </si>
+  <si>
+    <t>MRTS16_x000D_
+Cl 8.4.2.1</t>
+  </si>
+  <si>
+    <t>Turf shall be installed within two days from the completion of the topsoil operations, Turf shall be installed by: _x000D_
+a)spreading fertiliser over the topsoil and raking the surface smooth_x000D_
+b) to the prepared surface that has been moistened with a solution of water and wetting agent_x000D_
+c) on the day turf is delivered to site_x000D_
+d) by laying rolls parallel to the contour, in a staggered brick pattern, and_x000D_
+e) by watering, within 2 hours of installation, with a solution of water and wetting agent until the_x000D_
+topsoil layer is moist. Watering shall be applied in multiple applications to ensure surface_x000D_
+erosion does not occur.</t>
+  </si>
+  <si>
+    <t>MRTS16_x000D_
+Cl 8.5.2</t>
+  </si>
+  <si>
+    <t>Turf installed within 2 days of topsoil, within 24 hours of delivery and in accordance to Table 8.5.2 with initial watering on the day of installation and at least 25L/m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For seeding operations, the Contractor shall prepare a sample instillation to provide an agreed quality control for further instillations. The sample instillation shall be established as per Cl 8.5.1 </t>
+  </si>
+  <si>
+    <t>Hold Point 9</t>
+  </si>
+  <si>
+    <t>Cl 8.5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All seed, wetting agents and fertilisers shall be brought on site in seperately labelled containers and mixed on-site to allow verification of materials and quanitities </t>
+  </si>
+  <si>
+    <t>Broadcast seeding installed as per Cl 8.5.1.2</t>
+  </si>
+  <si>
+    <t>Cl 8.5.1.2</t>
+  </si>
+  <si>
+    <t>Hydrumulch bonded fibre matrix installed as per Cl 8.5.1.4</t>
+  </si>
+  <si>
+    <t>Cl 8.5.1.4</t>
+  </si>
+  <si>
+    <t>Commencement of the Establishment Period</t>
+  </si>
+  <si>
+    <t>Issue of Certificate of Commencement of the Establishment Period by the Administrator</t>
+  </si>
+  <si>
+    <t>MRTS16_x000D_
+Cl 9.1</t>
+  </si>
+  <si>
+    <t>The Contractor shall care for the installed vegetation treatments to ensure their long term sustainability_x000D_
+and to meet the completion criteria of Clause 9.1.2</t>
+  </si>
+  <si>
+    <t>MRTS16_x000D_
+Cl 9.1.1</t>
+  </si>
+  <si>
+    <t>Commencement of the Monitoring Period</t>
+  </si>
+  <si>
+    <t>Issue of Certificate of Commencement of the Moitoring Period by the Administrator</t>
+  </si>
+  <si>
+    <t>MRTS16_x000D_
+Cl 9.2</t>
+  </si>
+  <si>
+    <t>All Monitoring operations; including, watering, fertilising, weed, pest and disease control, mowing, slashing and brush cutting, pruning, and repair and reinstallation of failed plants, comply with Clause 9.2.1</t>
+  </si>
+  <si>
+    <t>MRTS16_x000D_
+Cl 9.2.1</t>
+  </si>
+  <si>
+    <t>Certificate of finalisation of landscape and revegetation works monitoring period issued</t>
+  </si>
+  <si>
+    <t>Issue of Certificate of Completion of the Moitoring Period by the Administrator</t>
+  </si>
+  <si>
+    <t>MRTS16_x000D_
+Cl 9.2.2</t>
   </si>
 </sst>
 </file>
@@ -187,104 +352,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -594,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9569D8B-2D3C-4734-8A88-E4228D8D8D71}">
-  <dimension ref="A1:AF51"/>
+  <dimension ref="A1:AF105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -674,511 +742,1402 @@
     </row>
     <row r="2" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="O2" t="s">
-        <v>2</v>
-      </c>
-      <c r="W2" t="s">
-        <v>1</v>
+      <c r="M2" s="1"/>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="1"/>
+      <c r="V2" t="s">
+        <v>6</v>
       </c>
       <c r="AB2" t="str">
         <f>A2</f>
-        <v>Any trees, shrubs and overhanging branches to be left undisturbed shall be clearly marked prior to clearing operations reaching the areas concerned.</v>
+        <v>Soil Management Plan prepared in accordance with Form A of Appendix MRTS16. Construction and regular Updates submitted to the Administrator for approval</v>
       </c>
       <c r="AC2" t="str">
-        <f>"Acceptance Criteria and Frequency (Project Specific) - "&amp;O2</f>
-        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+        <f>"Acceptance Criteria and Frequency (Project Specific) - "&amp;N2</f>
+        <v>Acceptance Criteria and Frequency (Project Specific) - Written Acceptance</v>
       </c>
       <c r="AD2" t="str">
-        <f>"Check Item - "&amp;W2</f>
-        <v>Check Item - Hold Point 2</v>
+        <f>"Check Item - "&amp;V2</f>
+        <v>Check Item - Hold Point 1</v>
       </c>
       <c r="AE2" t="str">
-        <f>"Reference - "&amp;W3</f>
-        <v>Reference - MRTS04_x000D_
-Cl. 7.2.2</v>
+        <f>"Reference - "&amp;V3</f>
+        <v>Reference - MRTS16_x000D_
+Cl 5.2.1</v>
       </c>
       <c r="AF2" t="str" cm="1">
-        <f t="array" ref="AF2:AF33">_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;_xlfn.TEXTJOIN("&lt;/s&gt;&lt;s&gt;",,AB2:AE51)&amp;"&lt;/s&gt;&lt;/t&gt;","//s")</f>
-        <v>Any trees, shrubs and overhanging branches to be left undisturbed shall be clearly marked prior to clearing operations reaching the areas concerned.</v>
+        <f t="array" ref="AF2:AF105">_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;_xlfn.TEXTJOIN("&lt;/s&gt;&lt;s&gt;",,AB2:AE59)&amp;"&lt;/s&gt;&lt;/t&gt;","//s")</f>
+        <v>Soil Management Plan prepared in accordance with Form A of Appendix MRTS16. Construction and regular Updates submitted to the Administrator for approval</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="1"/>
       <c r="H3" s="1"/>
       <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="V3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="1"/>
       <c r="AF3" t="str">
-        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+        <v>Acceptance Criteria and Frequency (Project Specific) - Written Acceptance</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="O4" t="s">
-        <v>2</v>
-      </c>
-      <c r="W4" t="s">
-        <v>3</v>
+      <c r="N4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="V4" t="s">
+        <v>1</v>
       </c>
       <c r="AB4" t="str">
         <f>A4</f>
-        <v>Any trees required by the Administrator for use as marketable timber shall be as nominated in Clause 1.3 of Annexure MRTS04.1. Such trees shall be clearly marked by the Contractor prior to clearing operations reaching the areas concerned</v>
+        <v>Non-Potable Water Plan and permits submitted to the Administrator</v>
       </c>
       <c r="AC4" t="str">
-        <f>"Acceptance Criteria and Frequency (Project Specific) - "&amp;O4</f>
-        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+        <f>"Acceptance Criteria and Frequency (Project Specific) - "&amp;N4</f>
+        <v>Acceptance Criteria and Frequency (Project Specific) - Plan</v>
       </c>
       <c r="AD4" t="str">
-        <f>"Check Item - "&amp;W4</f>
-        <v>Check Item - Hold Point 3</v>
+        <f>"Check Item - "&amp;V4</f>
+        <v>Check Item - Hold Point 2</v>
       </c>
       <c r="AE4" t="str">
-        <f>"Reference - "&amp;W5</f>
-        <v>Reference - MRTS04_x000D_
-Cl. 7.2.3</v>
+        <f>"Reference - "&amp;V5</f>
+        <v>Reference - MRTS16_x000D_
+Cl 5.2.2</v>
       </c>
       <c r="AF4" t="str">
-        <v>Check Item - Hold Point 2</v>
+        <v>Check Item - Hold Point 1</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="1"/>
       <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="V5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W5" s="1"/>
       <c r="AF5" t="str">
-        <v>Reference - MRTS04
-Cl. 7.2.2</v>
+        <v>Reference - MRTS16
+Cl 5.2.1</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="O6" t="s">
-        <v>2</v>
-      </c>
-      <c r="W6" t="s">
-        <v>1</v>
+      <c r="N6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="V6" t="s">
+        <v>3</v>
       </c>
       <c r="AB6" t="str">
         <f>A6</f>
-        <v>As soon as practicable and prior to initial earthworks operations (clearing and grubbing) for any stage or section of the Works, erosion and sediment controls associated with drainage paths flowing through the Works area shall be installed.</v>
+        <v>Seed Supply Proposal submitted to the Administrator within 30 days of Possession of Site</v>
       </c>
       <c r="AC6" t="str">
-        <f>"Acceptance Criteria and Frequency (Project Specific) - "&amp;O6</f>
-        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+        <f>"Acceptance Criteria and Frequency (Project Specific) - "&amp;N6</f>
+        <v>Acceptance Criteria and Frequency (Project Specific) - Plan</v>
       </c>
       <c r="AD6" t="str">
-        <f>"Check Item - "&amp;W6</f>
-        <v>Check Item - Hold Point 2</v>
+        <f>"Check Item - "&amp;V6</f>
+        <v>Check Item - Hold Point 3</v>
       </c>
       <c r="AE6" t="str">
-        <f>"Reference - "&amp;W7</f>
-        <v>Reference - MRTS52_x000D_
-Cl. 7.1</v>
+        <f>"Reference - "&amp;V7</f>
+        <v>Reference - MRTS16_x000D_
+Cl 5.3.1</v>
       </c>
       <c r="AF6" t="str">
-        <v>Any trees required by the Administrator for use as marketable timber shall be as nominated in Clause 1.3 of Annexure MRTS04.1. Such trees shall be clearly marked by the Contractor prior to clearing operations reaching the areas concerned</v>
+        <v>Non-Potable Water Plan and permits submitted to the Administrator</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="V7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W7" s="1"/>
       <c r="AF7" t="str">
-        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+        <v>Acceptance Criteria and Frequency (Project Specific) - Plan</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O8" t="s">
-        <v>2</v>
-      </c>
-      <c r="W8" t="s">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="V8" t="s">
+        <v>4</v>
       </c>
       <c r="AB8" t="str">
         <f>A8</f>
-        <v xml:space="preserve">Hollow timber which is identified as being suitable for fauna habitat logs relocated to areas clear of construction activities </v>
+        <v>Plant Supply Proposal submitted to the Administrator within 30 days of Possession of Site</v>
       </c>
       <c r="AC8" t="str">
-        <f>"Acceptance Criteria and Frequency (Project Specific) - "&amp;O8</f>
-        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+        <f>"Acceptance Criteria and Frequency (Project Specific) - "&amp;N8</f>
+        <v>Acceptance Criteria and Frequency (Project Specific) - Plan</v>
       </c>
       <c r="AD8" t="str">
-        <f>"Check Item - "&amp;W8</f>
-        <v>Check Item - Check Item</v>
+        <f>"Check Item - "&amp;V8</f>
+        <v>Check Item - Hold Point 5</v>
       </c>
       <c r="AE8" t="str">
-        <f>"Reference - "&amp;W9</f>
-        <v>Reference - MRTS04_x000D_
-Cl. 7.2.5</v>
+        <f>"Reference - "&amp;V9</f>
+        <v xml:space="preserve">Reference - MRTS16_x000D_
+Cl 5.3.3 </v>
       </c>
       <c r="AF8" t="str">
-        <v>Check Item - Hold Point 3</v>
+        <v>Check Item - Hold Point 2</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E9" s="1"/>
       <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="V9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W9" s="1"/>
       <c r="AF9" t="str">
-        <v>Reference - MRTS04
-Cl. 7.2.3</v>
+        <v>Reference - MRTS16
+Cl 5.2.2</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" t="s">
-        <v>2</v>
-      </c>
-      <c r="W10" t="s">
-        <v>0</v>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="V10" t="s">
+        <v>10</v>
       </c>
       <c r="AB10" t="str">
         <f>A10</f>
-        <v>Surplus topsoil material and material considered not suitable for use as planting media in accordance with Cl. 8.3 shall be assessed for suitability for use as fill or deemed as unsuitable and disposed in accordance with Cl. 11</v>
+        <v>Plant Harvesting Proposal submitted to the Administrator prior to harvesting plants</v>
       </c>
       <c r="AC10" t="str">
-        <f>"Acceptance Criteria and Frequency (Project Specific) - "&amp;O10</f>
-        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+        <f>"Acceptance Criteria and Frequency (Project Specific) - "&amp;N10</f>
+        <v>Acceptance Criteria and Frequency (Project Specific) - Plan</v>
       </c>
       <c r="AD10" t="str">
-        <f>"Check Item - "&amp;W10</f>
-        <v>Check Item - Check Item</v>
+        <f>"Check Item - "&amp;V10</f>
+        <v>Check Item - Hold Point 6</v>
       </c>
       <c r="AE10" t="str">
-        <f>"Reference - "&amp;W11</f>
-        <v>Reference - MRTS04_x000D_
-Cl. 8.4.2</v>
+        <f>"Reference - "&amp;V11</f>
+        <v>Reference - MRTS16_x000D_
+Cl 5.3.4</v>
       </c>
       <c r="AF10" t="str">
-        <v>As soon as practicable and prior to initial earthworks operations (clearing and grubbing) for any stage or section of the Works, erosion and sediment controls associated with drainage paths flowing through the Works area shall be installed.</v>
+        <v>Seed Supply Proposal submitted to the Administrator within 30 days of Possession of Site</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="V11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W11" s="1"/>
       <c r="AF11" t="str">
-        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+        <v>Acceptance Criteria and Frequency (Project Specific) - Plan</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N12" s="1"/>
-      <c r="O12" t="s">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W12" t="s">
+      <c r="O12" s="1"/>
+      <c r="V12" t="s">
         <v>0</v>
       </c>
       <c r="AB12" t="str">
         <f>A12</f>
-        <v>The scope of clearing and grubbing shall include the items as per Annexure MRTS04.1 Cl. 1.2 CHAR(AMP) Cl. 1.4</v>
+        <v>Materials imported to Site shall be free of prohibited or restricted biosecurity matter</v>
       </c>
       <c r="AC12" t="str">
-        <f>"Acceptance Criteria and Frequency (Project Specific) - "&amp;O12</f>
+        <f>"Acceptance Criteria and Frequency (Project Specific) - "&amp;N12</f>
         <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
       </c>
       <c r="AD12" t="str">
-        <f>"Check Item - "&amp;W12</f>
+        <f>"Check Item - "&amp;V12</f>
         <v>Check Item - Check Item</v>
       </c>
       <c r="AE12" t="str">
-        <f>"Reference - "&amp;W13</f>
-        <v>Reference - MRTS04 _x000D_
-Cl. 7.2.8_x000D_
-MRTS04.1 Cl 1.2_x000D_
-Cl 1.4</v>
+        <f>"Reference - "&amp;V13</f>
+        <v>Reference - MRTS16_x000D_
+Cl 7</v>
       </c>
       <c r="AF12" t="str">
-        <v>Check Item - Hold Point 2</v>
+        <v>Check Item - Hold Point 3</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V13" s="1"/>
-      <c r="W13" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W13" s="1"/>
       <c r="AF13" t="str">
-        <v>Reference - MRTS52
-Cl. 7.1</v>
+        <v>Reference - MRTS16
+Cl 5.3.1</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N14" s="1"/>
-      <c r="O14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W14" t="s">
+      <c r="O14" s="1"/>
+      <c r="V14" t="s">
         <v>0</v>
       </c>
       <c r="AB14" t="str">
         <f>A14</f>
-        <v>The additional width for clearing (no grubbing) is 3.0m as per Annexure MRTS04.1</v>
+        <v>Materials are stored to ensure no deterioration or contamination occurs, including the potential for environmental harm</v>
       </c>
       <c r="AC14" t="str">
-        <f>"Acceptance Criteria and Frequency (Project Specific) - "&amp;O14</f>
+        <f>"Acceptance Criteria and Frequency (Project Specific) - "&amp;N14</f>
         <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
       </c>
       <c r="AD14" t="str">
-        <f>"Check Item - "&amp;W14</f>
+        <f>"Check Item - "&amp;V14</f>
         <v>Check Item - Check Item</v>
       </c>
       <c r="AE14" t="str">
-        <f>"Reference - "&amp;W15</f>
-        <v xml:space="preserve">Reference - Annexure_x000D_
-MRTS04.1_x000D_
-</v>
+        <f>"Reference - "&amp;V15</f>
+        <v>Reference - MRTS16_x000D_
+Cl 7</v>
       </c>
       <c r="AF14" t="str">
-        <v>Hollow timber which is identified as being suitable for fauna habitat logs relocated to areas clear of construction activities</v>
+        <v>Plant Supply Proposal submitted to the Administrator within 30 days of Possession of Site</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="V15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W15" s="1"/>
       <c r="AF15" t="str">
-        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+        <v>Acceptance Criteria and Frequency (Project Specific) - Plan</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O16" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" t="s">
         <v>2</v>
       </c>
-      <c r="W16" t="s">
+      <c r="V16" t="s">
         <v>0</v>
       </c>
       <c r="AB16" t="str">
         <f>A16</f>
-        <v xml:space="preserve">Material not to be removed from within drip lines of existing plants to be retained except where this would result in unsuitable material being left beneath embankments. Root systems of existing plants to be retained are preserved where practical. </v>
+        <v>Materials; including pesticides, soil amelioration agents, soil, seeding, turf, mulch, matting, plants water, plant bed edging and irrigation systems, comply with requirements and specifications set out in MRTS16 Clause 7 where applicable</v>
       </c>
       <c r="AC16" t="str">
-        <f>"Acceptance Criteria and Frequency (Project Specific) - "&amp;O16</f>
+        <f>"Acceptance Criteria and Frequency (Project Specific) - "&amp;N16</f>
         <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
       </c>
       <c r="AD16" t="str">
-        <f>"Check Item - "&amp;W16</f>
+        <f>"Check Item - "&amp;V16</f>
         <v>Check Item - Check Item</v>
       </c>
       <c r="AE16" t="str">
-        <f>"Reference - "&amp;W17</f>
-        <v>Reference - MRTS04_x000D_
-Cl. 8.4.3</v>
+        <f>"Reference - "&amp;V17</f>
+        <v>Reference - MRTS16_x000D_
+Cl 7</v>
       </c>
       <c r="AF16" t="str">
+        <v>Check Item - Hold Point 5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U17" s="1"/>
+      <c r="V17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W17" s="1"/>
+      <c r="AF17" t="str">
+        <v>Reference - MRTS16
+Cl 5.3.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="str">
+        <f>A18</f>
+        <v>Containerised plants and ex ground stock in accordance with MRTS16 Cl. 7.6.2</v>
+      </c>
+      <c r="AC18" t="str">
+        <f>"Acceptance Criteria and Frequency (Project Specific) - "&amp;N18</f>
+        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+      </c>
+      <c r="AD18" t="str">
+        <f>"Check Item - "&amp;V18</f>
         <v>Check Item - Check Item</v>
       </c>
-    </row>
-    <row r="17" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V17" s="1"/>
-      <c r="W17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF17" t="str">
-        <v>Reference - MRTS04
-Cl. 7.2.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N18" s="1"/>
+      <c r="AE18" t="str">
+        <f>"Reference - "&amp;V19</f>
+        <v>Reference - MRTS16_x000D_
+Cl 7.6.2</v>
+      </c>
       <c r="AF18" t="str">
-        <v>Surplus topsoil material and material considered not suitable for use as planting media in accordance with Cl. 8.3 shall be assessed for suitability for use as fill or deemed as unsuitable and disposed in accordance with Cl. 11</v>
+        <v>Plant Harvesting Proposal submitted to the Administrator prior to harvesting plants</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W19" s="1"/>
       <c r="AF19" t="str">
-        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+        <v>Acceptance Criteria and Frequency (Project Specific) - Plan</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="N20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O20" s="1"/>
+      <c r="V20" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="str">
+        <f>A20</f>
+        <v>The extent and types of vegetation treatments are installed as specified in the contract and/or shown on the drawings</v>
+      </c>
+      <c r="AC20" t="str">
+        <f>"Acceptance Criteria and Frequency (Project Specific) - "&amp;N20</f>
+        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+      </c>
+      <c r="AD20" t="str">
+        <f>"Check Item - "&amp;V20</f>
+        <v>Check Item - Check Item</v>
+      </c>
+      <c r="AE20" t="str">
+        <f>"Reference - "&amp;V21</f>
+        <v>Reference - MRTS16_x000D_
+Cl 8</v>
+      </c>
       <c r="AF20" t="str">
-        <v>Check Item - Check Item</v>
+        <v>Check Item - Hold Point 6</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W21" s="1"/>
       <c r="AF21" t="str">
-        <v>Reference - MRTS04
-Cl. 8.4.2</v>
+        <v>Reference - MRTS16
+Cl 5.3.4</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="N22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB22" t="str">
+        <f>A22</f>
+        <v>Site is weed free prior to ground preparation operations</v>
+      </c>
+      <c r="AC22" t="str">
+        <f>"Acceptance Criteria and Frequency (Project Specific) - "&amp;N22</f>
+        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+      </c>
+      <c r="AD22" t="str">
+        <f>"Check Item - "&amp;V22</f>
+        <v>Check Item - Witness Point 2</v>
+      </c>
+      <c r="AE22" t="str">
+        <f>"Reference - "&amp;V23</f>
+        <v>Reference - MRTS16_x000D_
+Cl 8.3</v>
+      </c>
       <c r="AF22" t="str">
-        <v>The scope of clearing and grubbing shall include the items as per Annexure MRTS04.1 Cl. 1.2 CHAR(AMP) Cl. 1.4</v>
+        <v>Materials imported to Site shall be free of prohibited or restricted biosecurity matter</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="AF23" t="str">
         <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
       </c>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M24" s="1"/>
+      <c r="N24" t="s">
+        <v>2</v>
+      </c>
+      <c r="V24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB24" t="str">
+        <f>A24</f>
+        <v>Administrator notified at least 3 days before each of the following:_x000D_
+application and incorporation of amelioration agents_x000D_
+ripping_x000D_
+cultivation _x000D_
+roughening</v>
+      </c>
+      <c r="AC24" t="str">
+        <f>"Acceptance Criteria and Frequency (Project Specific) - "&amp;N24</f>
+        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+      </c>
+      <c r="AD24" t="str">
+        <f>"Check Item - "&amp;V24</f>
+        <v>Check Item - Witness Point 3, 4, 5</v>
+      </c>
+      <c r="AE24" t="str">
+        <f>"Reference - "&amp;V25</f>
+        <v>Reference - MRTS16_x000D_
+Cl 8.1.1_x000D_
+Cl 8.4.1.1_x000D_
+Cl 8.4.1.2_x000D_
+Cl 8.4.1.3_x000D_
+Cl 8.4.1.4</v>
+      </c>
       <c r="AF24" t="str">
         <v>Check Item - Check Item</v>
       </c>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W25" s="1"/>
       <c r="AF25" t="str">
-        <v>Reference - MRTS04 
-Cl. 7.2.8
-MRTS04.1 Cl 1.2
-Cl 1.4</v>
+        <v>Reference - MRTS16
+Cl 7</v>
       </c>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M26" s="1"/>
+      <c r="N26" t="s">
+        <v>2</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB26" t="str">
+        <f>A26</f>
+        <v>Amelioration agents, where specified in the Soil Management Plan – Construction, shall be spread_x000D_
+over the subsoil surface at the specified rates prior to subsoil operations</v>
+      </c>
+      <c r="AC26" t="str">
+        <f>"Acceptance Criteria and Frequency (Project Specific) - "&amp;N26</f>
+        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+      </c>
+      <c r="AD26" t="str">
+        <f>"Check Item - "&amp;V26</f>
+        <v>Check Item - Hold Point 8</v>
+      </c>
+      <c r="AE26" t="str">
+        <f>"Reference - "&amp;V27</f>
+        <v>Reference - Cl 8.4.1.1</v>
+      </c>
       <c r="AF26" t="str">
-        <v>The additional width for clearing (no grubbing) is 3.0m as per Annexure MRTS04.1</v>
+        <v>Materials are stored to ensure no deterioration or contamination occurs, including the potential for environmental harm</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W27" s="1"/>
       <c r="AF27" t="str">
         <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
       </c>
     </row>
     <row r="28" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M28" s="1"/>
+      <c r="N28" t="s">
+        <v>2</v>
+      </c>
+      <c r="V28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB28" t="str">
+        <f>A28</f>
+        <v>Manufactured site topsoil shall be in accordance with Form D of MRTS 16 Appendix prior to being used.</v>
+      </c>
+      <c r="AC28" t="str">
+        <f>"Acceptance Criteria and Frequency (Project Specific) - "&amp;N28</f>
+        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+      </c>
+      <c r="AD28" t="str">
+        <f>"Check Item - "&amp;V28</f>
+        <v>Check Item - Hold Point 7</v>
+      </c>
+      <c r="AE28" t="str">
+        <f>"Reference - "&amp;V29</f>
+        <v>Reference - MRTS16_x000D_
+Cl 8.2.1</v>
+      </c>
       <c r="AF28" t="str">
         <v>Check Item - Check Item</v>
       </c>
     </row>
     <row r="29" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W29" s="1"/>
       <c r="AF29" t="str">
-        <v>Reference - Annexure
-MRTS04.1</v>
+        <v>Reference - MRTS16
+Cl 7</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="N30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V30" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB30" t="str">
+        <f>A30</f>
+        <v>The Contractor shall give at least three days notice before installation of topsoil. Topsoil installed evenly over the surface, within 3 days of subsoil preparation and Topsoil shall be spread to the depths described in the relevant vegetation works operation, and allow for settlement after installation.</v>
+      </c>
+      <c r="AC30" t="str">
+        <f>"Acceptance Criteria and Frequency (Project Specific) - "&amp;N30</f>
+        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+      </c>
+      <c r="AD30" t="str">
+        <f>"Check Item - "&amp;V30</f>
+        <v>Check Item - Witness Point 6</v>
+      </c>
+      <c r="AE30" t="str">
+        <f>"Reference - "&amp;V31</f>
+        <v>Reference - MRTS16_x000D_
+Cl 8.4.2.1</v>
+      </c>
       <c r="AF30" t="str">
-        <v>Material not to be removed from within drip lines of existing plants to be retained except where this would result in unsuitable material being left beneath embankments. Root systems of existing plants to be retained are preserved where practical.</v>
+        <v>Materials; including pesticides, soil amelioration agents, soil, seeding, turf, mulch, matting, plants water, plant bed edging and irrigation systems, comply with requirements and specifications set out in MRTS16 Clause 7 where applicable</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W31" s="1"/>
       <c r="AF31" t="str">
         <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
       </c>
     </row>
     <row r="32" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="N32" s="1"/>
+      <c r="A32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O32" s="1"/>
+      <c r="V32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="str">
+        <f>A32</f>
+        <v>Turf shall be installed within two days from the completion of the topsoil operations, Turf shall be installed by: _x000D_
+a)spreading fertiliser over the topsoil and raking the surface smooth_x000D_
+b) to the prepared surface that has been moistened with a solution of water and wetting agent_x000D_
+c) on the day turf is delivered to site_x000D_
+d) by laying rolls parallel to the contour, in a staggered brick pattern, and_x000D_
+e) by watering, within 2 hours of installation, with a solution of water and wetting agent until the_x000D_
+topsoil layer is moist. Watering shall be applied in multiple applications to ensure surface_x000D_
+erosion does not occur.</v>
+      </c>
+      <c r="AC32" t="str">
+        <f>"Acceptance Criteria and Frequency (Project Specific) - "&amp;N32</f>
+        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+      </c>
+      <c r="AD32" t="str">
+        <f>"Check Item - "&amp;V32</f>
+        <v>Check Item - Check Item</v>
+      </c>
+      <c r="AE32" t="str">
+        <f>"Reference - "&amp;V33</f>
+        <v>Reference - MRTS16_x000D_
+Cl 8.5.2</v>
+      </c>
       <c r="AF32" t="str">
         <v>Check Item - Check Item</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W33" s="1"/>
       <c r="AF33" t="str">
-        <v>Reference - MRTS04
-Cl. 8.4.3</v>
+        <v>Reference - MRTS16
+Cl 7</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
+      <c r="A34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M34" s="1"/>
+      <c r="N34" t="s">
+        <v>2</v>
+      </c>
+      <c r="V34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="str">
+        <f>A34</f>
+        <v>Turf installed within 2 days of topsoil, within 24 hours of delivery and in accordance to Table 8.5.2 with initial watering on the day of installation and at least 25L/m2</v>
+      </c>
+      <c r="AC34" t="str">
+        <f>"Acceptance Criteria and Frequency (Project Specific) - "&amp;N34</f>
+        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+      </c>
+      <c r="AD34" t="str">
+        <f>"Check Item - "&amp;V34</f>
+        <v>Check Item - Check Item</v>
+      </c>
+      <c r="AE34" t="str">
+        <f>"Reference - "&amp;V35</f>
+        <v>Reference - MRTS16_x000D_
+Cl 8.5.2</v>
+      </c>
+      <c r="AF34" t="str">
+        <v>Containerised plants and ex ground stock in accordance with MRTS16 Cl. 7.6.2</v>
+      </c>
     </row>
     <row r="35" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W35" s="1"/>
+      <c r="AF35" t="str">
+        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+      </c>
     </row>
     <row r="36" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V36" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB36" t="str">
+        <f>A36</f>
+        <v xml:space="preserve">For seeding operations, the Contractor shall prepare a sample instillation to provide an agreed quality control for further instillations. The sample instillation shall be established as per Cl 8.5.1 </v>
+      </c>
+      <c r="AC36" t="str">
+        <f>"Acceptance Criteria and Frequency (Project Specific) - "&amp;N36</f>
+        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+      </c>
+      <c r="AD36" t="str">
+        <f>"Check Item - "&amp;V36</f>
+        <v>Check Item - Hold Point 9</v>
+      </c>
+      <c r="AE36" t="str">
+        <f>"Reference - "&amp;V37</f>
+        <v>Reference - Cl 8.5.1</v>
+      </c>
+      <c r="AF36" t="str">
+        <v>Check Item - Check Item</v>
+      </c>
     </row>
     <row r="37" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF37" t="str">
+        <v>Reference - MRTS16
+Cl 7.6.2</v>
+      </c>
     </row>
     <row r="38" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="N38" s="1"/>
+      <c r="A38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V38" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB38" t="str">
+        <f>A38</f>
+        <v xml:space="preserve">All seed, wetting agents and fertilisers shall be brought on site in seperately labelled containers and mixed on-site to allow verification of materials and quanitities </v>
+      </c>
+      <c r="AC38" t="str">
+        <f>"Acceptance Criteria and Frequency (Project Specific) - "&amp;N38</f>
+        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+      </c>
+      <c r="AD38" t="str">
+        <f>"Check Item - "&amp;V38</f>
+        <v>Check Item - Hold Point 7</v>
+      </c>
+      <c r="AE38" t="str">
+        <f>"Reference - "&amp;V39</f>
+        <v>Reference - Cl 8.5.1</v>
+      </c>
+      <c r="AF38" t="str">
+        <v>The extent and types of vegetation treatments are installed as specified in the contract and/or shown on the drawings</v>
+      </c>
     </row>
     <row r="39" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF39" t="str">
+        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+      </c>
     </row>
     <row r="40" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
+      <c r="A40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M40" s="1"/>
       <c r="N40" s="1"/>
+      <c r="V40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="str">
+        <f>A40</f>
+        <v>Broadcast seeding installed as per Cl 8.5.1.2</v>
+      </c>
+      <c r="AC40" t="str">
+        <f>"Acceptance Criteria and Frequency (Project Specific) - "&amp;N40</f>
+        <v xml:space="preserve">Acceptance Criteria and Frequency (Project Specific) - </v>
+      </c>
+      <c r="AD40" t="str">
+        <f>"Check Item - "&amp;V40</f>
+        <v>Check Item - Check Item</v>
+      </c>
+      <c r="AE40" t="str">
+        <f>"Reference - "&amp;V41</f>
+        <v>Reference - Cl 8.5.1.2</v>
+      </c>
+      <c r="AF40" t="str">
+        <v>Check Item - Check Item</v>
+      </c>
     </row>
     <row r="41" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF41" t="str">
+        <v>Reference - MRTS16
+Cl 8</v>
+      </c>
     </row>
     <row r="42" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
+      <c r="A42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="str">
+        <f>A42</f>
+        <v>Hydrumulch bonded fibre matrix installed as per Cl 8.5.1.4</v>
+      </c>
+      <c r="AC42" t="str">
+        <f>"Acceptance Criteria and Frequency (Project Specific) - "&amp;N42</f>
+        <v xml:space="preserve">Acceptance Criteria and Frequency (Project Specific) - </v>
+      </c>
+      <c r="AD42" t="str">
+        <f>"Check Item - "&amp;V42</f>
+        <v>Check Item - Check Item</v>
+      </c>
+      <c r="AE42" t="str">
+        <f>"Reference - "&amp;V43</f>
+        <v>Reference - Cl 8.5.1.4</v>
+      </c>
+      <c r="AF42" t="str">
+        <v>Site is weed free prior to ground preparation operations</v>
+      </c>
     </row>
     <row r="43" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF43" t="str">
+        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+      </c>
     </row>
     <row r="44" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N44" s="1"/>
+      <c r="A44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V44" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB44" t="str">
+        <f>A44</f>
+        <v>Commencement of the Establishment Period</v>
+      </c>
+      <c r="AC44" t="str">
+        <f>"Acceptance Criteria and Frequency (Project Specific) - "&amp;N44</f>
+        <v>Acceptance Criteria and Frequency (Project Specific) - Issue of Certificate of Commencement of the Establishment Period by the Administrator</v>
+      </c>
+      <c r="AD44" t="str">
+        <f>"Check Item - "&amp;V44</f>
+        <v>Check Item - Milestone</v>
+      </c>
+      <c r="AE44" t="str">
+        <f>"Reference - "&amp;V45</f>
+        <v>Reference - MRTS16_x000D_
+Cl 9.1</v>
+      </c>
+      <c r="AF44" t="str">
+        <v>Check Item - Witness Point 2</v>
+      </c>
     </row>
     <row r="45" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF45" t="str">
+        <v>Reference - MRTS16
+Cl 8.3</v>
+      </c>
     </row>
     <row r="46" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N46" s="1"/>
+      <c r="A46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V46" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB46" t="str">
+        <f>A46</f>
+        <v>The Contractor shall care for the installed vegetation treatments to ensure their long term sustainability_x000D_
+and to meet the completion criteria of Clause 9.1.2</v>
+      </c>
+      <c r="AC46" t="str">
+        <f>"Acceptance Criteria and Frequency (Project Specific) - "&amp;N46</f>
+        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+      </c>
+      <c r="AD46" t="str">
+        <f>"Check Item - "&amp;V46</f>
+        <v>Check Item - Check Item</v>
+      </c>
+      <c r="AE46" t="str">
+        <f>"Reference - "&amp;V47</f>
+        <v>Reference - MRTS16_x000D_
+Cl 9.1.1</v>
+      </c>
+      <c r="AF46" t="str">
+        <v>Administrator notified at least 3 days before each of the following:
+application and incorporation of amelioration agents
+ripping
+cultivation 
+roughening</v>
+      </c>
     </row>
     <row r="47" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF47" t="str">
+        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+      </c>
     </row>
     <row r="48" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="N48" s="1"/>
-    </row>
-    <row r="49" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V49" s="1"/>
-    </row>
-    <row r="51" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V51" s="1"/>
+      <c r="A48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V48" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB48" t="str">
+        <f>A48</f>
+        <v>Commencement of the Monitoring Period</v>
+      </c>
+      <c r="AC48" t="str">
+        <f>"Acceptance Criteria and Frequency (Project Specific) - "&amp;N48</f>
+        <v>Acceptance Criteria and Frequency (Project Specific) - Issue of Certificate of Commencement of the Moitoring Period by the Administrator</v>
+      </c>
+      <c r="AD48" t="str">
+        <f>"Check Item - "&amp;V48</f>
+        <v>Check Item - Milestone</v>
+      </c>
+      <c r="AE48" t="str">
+        <f>"Reference - "&amp;V49</f>
+        <v>Reference - MRTS16_x000D_
+Cl 9.2</v>
+      </c>
+      <c r="AF48" t="str">
+        <v>Check Item - Witness Point 3, 4, 5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V49" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF49" t="str">
+        <v>Reference - MRTS16
+Cl 8.1.1
+Cl 8.4.1.1
+Cl 8.4.1.2
+Cl 8.4.1.3
+Cl 8.4.1.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>62</v>
+      </c>
+      <c r="N50" t="s">
+        <v>2</v>
+      </c>
+      <c r="V50" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB50" t="str">
+        <f>A50</f>
+        <v>All Monitoring operations; including, watering, fertilising, weed, pest and disease control, mowing, slashing and brush cutting, pruning, and repair and reinstallation of failed plants, comply with Clause 9.2.1</v>
+      </c>
+      <c r="AC50" t="str">
+        <f>"Acceptance Criteria and Frequency (Project Specific) - "&amp;N50</f>
+        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+      </c>
+      <c r="AD50" t="str">
+        <f>"Check Item - "&amp;V50</f>
+        <v>Check Item - Check Item</v>
+      </c>
+      <c r="AE50" t="str">
+        <f>"Reference - "&amp;V51</f>
+        <v>Reference - MRTS16_x000D_
+Cl 9.2.1</v>
+      </c>
+      <c r="AF50" t="str">
+        <v>Amelioration agents, where specified in the Soil Management Plan – Construction, shall be spread
+over the subsoil surface at the specified rates prior to subsoil operations</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF51" t="str">
+        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>64</v>
+      </c>
+      <c r="N52" t="s">
+        <v>65</v>
+      </c>
+      <c r="V52" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB52" t="str">
+        <f>A52</f>
+        <v>Certificate of finalisation of landscape and revegetation works monitoring period issued</v>
+      </c>
+      <c r="AC52" t="str">
+        <f>"Acceptance Criteria and Frequency (Project Specific) - "&amp;N52</f>
+        <v>Acceptance Criteria and Frequency (Project Specific) - Issue of Certificate of Completion of the Moitoring Period by the Administrator</v>
+      </c>
+      <c r="AD52" t="str">
+        <f>"Check Item - "&amp;V52</f>
+        <v>Check Item - Milestone</v>
+      </c>
+      <c r="AE52" t="str">
+        <f>"Reference - "&amp;V53</f>
+        <v>Reference - MRTS16_x000D_
+Cl 9.2.2</v>
+      </c>
+      <c r="AF52" t="str">
+        <v>Check Item - Hold Point 8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF53" t="str">
+        <v>Reference - Cl 8.4.1.1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF54" t="str">
+        <v>Manufactured site topsoil shall be in accordance with Form D of MRTS 16 Appendix prior to being used.</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF55" t="str">
+        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+      </c>
+    </row>
+    <row r="56" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF56" t="str">
+        <v>Check Item - Hold Point 7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF57" t="str">
+        <v>Reference - MRTS16
+Cl 8.2.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF58" t="str">
+        <v>The Contractor shall give at least three days notice before installation of topsoil. Topsoil installed evenly over the surface, within 3 days of subsoil preparation and Topsoil shall be spread to the depths described in the relevant vegetation works operation, and allow for settlement after installation.</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF59" t="str">
+        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+      </c>
+    </row>
+    <row r="60" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF60" t="str">
+        <v>Check Item - Witness Point 6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF61" t="str">
+        <v>Reference - MRTS16
+Cl 8.4.2.1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF62" t="str">
+        <v>Turf shall be installed within two days from the completion of the topsoil operations, Turf shall be installed by: 
+a)spreading fertiliser over the topsoil and raking the surface smooth
+b) to the prepared surface that has been moistened with a solution of water and wetting agent
+c) on the day turf is delivered to site
+d) by laying rolls parallel to the contour, in a staggered brick pattern, and
+e) by watering, within 2 hours of installation, with a solution of water and wetting agent until the
+topsoil layer is moist. Watering shall be applied in multiple applications to ensure surface
+erosion does not occur.</v>
+      </c>
+    </row>
+    <row r="63" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF63" t="str">
+        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+      </c>
+    </row>
+    <row r="64" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF64" t="str">
+        <v>Check Item - Check Item</v>
+      </c>
+    </row>
+    <row r="65" spans="32:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF65" t="str">
+        <v>Reference - MRTS16
+Cl 8.5.2</v>
+      </c>
+    </row>
+    <row r="66" spans="32:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF66" t="str">
+        <v>Turf installed within 2 days of topsoil, within 24 hours of delivery and in accordance to Table 8.5.2 with initial watering on the day of installation and at least 25L/m2</v>
+      </c>
+    </row>
+    <row r="67" spans="32:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF67" t="str">
+        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+      </c>
+    </row>
+    <row r="68" spans="32:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF68" t="str">
+        <v>Check Item - Check Item</v>
+      </c>
+    </row>
+    <row r="69" spans="32:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF69" t="str">
+        <v>Reference - MRTS16
+Cl 8.5.2</v>
+      </c>
+    </row>
+    <row r="70" spans="32:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF70" t="str">
+        <v>For seeding operations, the Contractor shall prepare a sample instillation to provide an agreed quality control for further instillations. The sample instillation shall be established as per Cl 8.5.1</v>
+      </c>
+    </row>
+    <row r="71" spans="32:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF71" t="str">
+        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+      </c>
+    </row>
+    <row r="72" spans="32:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF72" t="str">
+        <v>Check Item - Hold Point 9</v>
+      </c>
+    </row>
+    <row r="73" spans="32:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF73" t="str">
+        <v>Reference - Cl 8.5.1</v>
+      </c>
+    </row>
+    <row r="74" spans="32:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF74" t="str">
+        <v>All seed, wetting agents and fertilisers shall be brought on site in seperately labelled containers and mixed on-site to allow verification of materials and quanitities</v>
+      </c>
+    </row>
+    <row r="75" spans="32:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF75" t="str">
+        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+      </c>
+    </row>
+    <row r="76" spans="32:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF76" t="str">
+        <v>Check Item - Hold Point 7</v>
+      </c>
+    </row>
+    <row r="77" spans="32:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF77" t="str">
+        <v>Reference - Cl 8.5.1</v>
+      </c>
+    </row>
+    <row r="78" spans="32:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF78" t="str">
+        <v>Broadcast seeding installed as per Cl 8.5.1.2</v>
+      </c>
+    </row>
+    <row r="79" spans="32:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF79" t="str">
+        <v>Acceptance Criteria and Frequency (Project Specific) -</v>
+      </c>
+    </row>
+    <row r="80" spans="32:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF80" t="str">
+        <v>Check Item - Check Item</v>
+      </c>
+    </row>
+    <row r="81" spans="32:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF81" t="str">
+        <v>Reference - Cl 8.5.1.2</v>
+      </c>
+    </row>
+    <row r="82" spans="32:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF82" t="str">
+        <v>Hydrumulch bonded fibre matrix installed as per Cl 8.5.1.4</v>
+      </c>
+    </row>
+    <row r="83" spans="32:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF83" t="str">
+        <v>Acceptance Criteria and Frequency (Project Specific) -</v>
+      </c>
+    </row>
+    <row r="84" spans="32:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF84" t="str">
+        <v>Check Item - Check Item</v>
+      </c>
+    </row>
+    <row r="85" spans="32:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF85" t="str">
+        <v>Reference - Cl 8.5.1.4</v>
+      </c>
+    </row>
+    <row r="86" spans="32:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF86" t="str">
+        <v>Commencement of the Establishment Period</v>
+      </c>
+    </row>
+    <row r="87" spans="32:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF87" t="str">
+        <v>Acceptance Criteria and Frequency (Project Specific) - Issue of Certificate of Commencement of the Establishment Period by the Administrator</v>
+      </c>
+    </row>
+    <row r="88" spans="32:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF88" t="str">
+        <v>Check Item - Milestone</v>
+      </c>
+    </row>
+    <row r="89" spans="32:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF89" t="str">
+        <v>Reference - MRTS16
+Cl 9.1</v>
+      </c>
+    </row>
+    <row r="90" spans="32:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF90" t="str">
+        <v>The Contractor shall care for the installed vegetation treatments to ensure their long term sustainability
+and to meet the completion criteria of Clause 9.1.2</v>
+      </c>
+    </row>
+    <row r="91" spans="32:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF91" t="str">
+        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+      </c>
+    </row>
+    <row r="92" spans="32:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF92" t="str">
+        <v>Check Item - Check Item</v>
+      </c>
+    </row>
+    <row r="93" spans="32:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF93" t="str">
+        <v>Reference - MRTS16
+Cl 9.1.1</v>
+      </c>
+    </row>
+    <row r="94" spans="32:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF94" t="str">
+        <v>Commencement of the Monitoring Period</v>
+      </c>
+    </row>
+    <row r="95" spans="32:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF95" t="str">
+        <v>Acceptance Criteria and Frequency (Project Specific) - Issue of Certificate of Commencement of the Moitoring Period by the Administrator</v>
+      </c>
+    </row>
+    <row r="96" spans="32:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF96" t="str">
+        <v>Check Item - Milestone</v>
+      </c>
+    </row>
+    <row r="97" spans="32:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF97" t="str">
+        <v>Reference - MRTS16
+Cl 9.2</v>
+      </c>
+    </row>
+    <row r="98" spans="32:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF98" t="str">
+        <v>All Monitoring operations; including, watering, fertilising, weed, pest and disease control, mowing, slashing and brush cutting, pruning, and repair and reinstallation of failed plants, comply with Clause 9.2.1</v>
+      </c>
+    </row>
+    <row r="99" spans="32:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF99" t="str">
+        <v>Acceptance Criteria and Frequency (Project Specific) - Visual</v>
+      </c>
+    </row>
+    <row r="100" spans="32:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF100" t="str">
+        <v>Check Item - Check Item</v>
+      </c>
+    </row>
+    <row r="101" spans="32:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF101" t="str">
+        <v>Reference - MRTS16
+Cl 9.2.1</v>
+      </c>
+    </row>
+    <row r="102" spans="32:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF102" t="str">
+        <v>Certificate of finalisation of landscape and revegetation works monitoring period issued</v>
+      </c>
+    </row>
+    <row r="103" spans="32:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF103" t="str">
+        <v>Acceptance Criteria and Frequency (Project Specific) - Issue of Certificate of Completion of the Moitoring Period by the Administrator</v>
+      </c>
+    </row>
+    <row r="104" spans="32:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF104" t="str">
+        <v>Check Item - Milestone</v>
+      </c>
+    </row>
+    <row r="105" spans="32:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF105" t="str">
+        <v>Reference - MRTS16
+Cl 9.2.2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
